--- a/libft.xlsx
+++ b/libft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zce00024\OneDrive - Telefonica\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/cursus42/libft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5BDDA3-7B2D-434D-BE93-295765E8EF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B7EF6-330E-C043-AB3F-C52D435BCDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB856D21-A31D-4462-95C1-0003CF081286}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EB856D21-A31D-4462-95C1-0003CF081286}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Makefile</t>
   </si>
@@ -268,7 +266,19 @@
     <t>Localiza la primera instancia de c convertido unsigned char en los primeros n caracteres</t>
   </si>
   <si>
-    <t>Copia los primeros n caracteres del objeto apuntado por s2 al objeto apuntado por s1</t>
+    <t>#include &lt;string.h&gt;/#include &lt;stdlib.h&gt;</t>
+  </si>
+  <si>
+    <t>zvoid    *ft_memchr(const void *s, int c, size_t n)</t>
+  </si>
+  <si>
+    <t>Compara los primeros n caracteres del objeto apuntado por s1 (interpretado como unsigned char) con los primeros n caracteres del objeto apuntado por s2 (interpretado como unsigned char).</t>
+  </si>
+  <si>
+    <t>int	ft_memcmp(const void	*s1, const	void *s2, size_t n)</t>
+  </si>
+  <si>
+    <t>Devuelve la resta sobre el primer número distinto dentro de n</t>
   </si>
 </sst>
 </file>
@@ -623,21 +633,21 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="F1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
-    <col min="8" max="8" width="56.90625" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="39.26953125" customWidth="1"/>
+    <col min="12" max="12" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>27</v>
       </c>
@@ -654,7 +664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>28</v>
       </c>
@@ -662,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -670,7 +680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>28</v>
       </c>
@@ -678,7 +688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -701,7 +711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -721,12 +731,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -746,7 +756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -766,7 +776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>28</v>
       </c>
@@ -789,7 +799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -809,7 +819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -832,12 +842,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -845,25 +858,46 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>28</v>
       </c>
@@ -886,7 +920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>28</v>
       </c>
@@ -906,28 +940,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
       <c r="I22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>28</v>
       </c>
@@ -947,17 +978,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>28</v>
       </c>
@@ -977,12 +1008,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +1033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>75</v>
       </c>

--- a/libft.xlsx
+++ b/libft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/cursus42/libft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B7EF6-330E-C043-AB3F-C52D435BCDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06954EEA-DAAC-ED4C-8579-F81EED024B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EB856D21-A31D-4462-95C1-0003CF081286}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{EB856D21-A31D-4462-95C1-0003CF081286}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>Makefile</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>Devuelve la resta sobre el primer número distinto dentro de n</t>
+  </si>
+  <si>
+    <t>void *memcpy(void *s1, const void *s2, size_t n)</t>
+  </si>
+  <si>
+    <t>Copia los primeros n caracteres del objeto apuntado por s2 al objeto apuntado por s1.</t>
+  </si>
+  <si>
+    <t>Devuelve s1</t>
+  </si>
+  <si>
+    <t>castear a unsigned char y copiar uno en otro</t>
   </si>
 </sst>
 </file>
@@ -633,8 +645,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="F1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -888,8 +900,26 @@
       </c>
     </row>
     <row r="16" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" t="s">
         <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.2">

--- a/libft.xlsx
+++ b/libft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/cursus42/libft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06954EEA-DAAC-ED4C-8579-F81EED024B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D0B44-B568-264B-A8A9-40C55750CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{EB856D21-A31D-4462-95C1-0003CF081286}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>Makefile</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>castear a unsigned char y copiar uno en otro</t>
+  </si>
+  <si>
+    <t>Copia los primeros n caracteres del objeto apuntado por s2 al objeto apuntado por s1 aunque se solapen las cadenas.</t>
+  </si>
+  <si>
+    <t>void. *ft_memmove(void *s1, const void *s2, size_t n)</t>
+  </si>
+  <si>
+    <t>devuelve s1</t>
   </si>
 </sst>
 </file>
@@ -643,454 +652,469 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755F8A51-16FF-43E6-93C6-C0F60E68DB20}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="F1:L30"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
       <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
       <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="L10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
       <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
         <v>44</v>
       </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="J28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G5:G29">
-    <sortCondition ref="G5:G29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:C29">
+    <sortCondition ref="C5:C29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
